--- a/Dataset/Folds/Fold_4/Excel/28.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/28.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12019" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13483" uniqueCount="1667">
   <si>
     <t>Doi</t>
   </si>
@@ -5035,6 +5035,538 @@
   </si>
   <si>
     <t>[ K%Feng%elasticNoEmail%0,   Y X% Yun%elasticNoEmail%0,   X F% Wang%elasticNoEmail%0,   G D% Yang%elasticNoEmail%0,   Y J% Zheng%elasticNoEmail%0,   C M% Lin%elasticNoEmail%0,   L F% Wang%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                           Dengju%Li%NULL%0,                           Xiong%Wang%NULL%0,                           Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,                           Hanxiong%Guan%NULL%1,                           Shuchang%Zhou%NULL%1,                           Yujin%Wang%NULL%1,                           Qian%Li%NULL%1,                           Tingting%Zhu%NULL%1,                           Qiongjie%Hu%qjhu@outlook.com%1,                           Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,                           Jenny%Chen%NULL%1,                           Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,                           Yang%Yang%NULL%4,                           Cong%Zhang%NULL%0,                           Fengming%Huang%NULL%1,                           Fuxiang%Wang%NULL%1,                           Jing%Yuan%NULL%1,                           Zhaoqin%Wang%NULL%0,                           Jinxiu%Li%NULL%1,                           Jianming%Li%NULL%1,                           Cheng%Feng%NULL%1,                           Zheng%Zhang%NULL%1,                           Lifei%Wang%NULL%1,                           Ling%Peng%NULL%1,                           Li%Chen%NULL%0,                           Yuhao%Qin%NULL%1,                           Dandan%Zhao%NULL%1,                           Shuguang%Tan%NULL%1,                           Lu%Yin%NULL%2,                           Jun%Xu%NULL%1,                           Congzhao%Zhou%NULL%1,                           Chengyu%Jiang%jiang@pumc.edu.cn%1,                           Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,                           Xueyan%Mei%NULL%4,                           Xueyan%Mei%NULL%0,                           Mingqian%Huang%NULL%4,                           Mingqian%Huang%NULL%0,                           Yang%Yang%NULL%0,                           Zahi A.%Fayad%NULL%0,                           Zahi A.%Fayad%NULL%0,                           Ning%Zhang%NULL%5,                           Ning%Zhang%NULL%0,                           Kaiyue%Diao%NULL%2,                           Kaiyue%Diao%NULL%0,                           Bin%Lin%NULL%1,                           Xiqi%Zhu%NULL%2,                           Xiqi%Zhu%NULL%0,                           Kunwei%Li%NULL%2,                           Shaolin%Li%NULL%2,                           Hong%Shan%NULL%0,                           Adam%Jacobi%NULL%3,                           Adam%Jacobi%NULL%0,                           Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,                           Ranjit%Sah%ranjitsah@iom.edu.np%0,                           Alfonso J%Rodriguez-Morales%NULL%1,                           Bibek Kumar%Lal%NULL%1,                           Runa%Jha%NULL%1,                           Hemant Chanda%Ojha%NULL%1,                           Bikesh%Shrestha%NULL%1,                           Daniel K W%Chu%NULL%1,                           Leo L M%Poon%NULL%1,                           Anthony%Costello%NULL%1,                           Kouichi%Morita%NULL%1,                           Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                           Min%Zhou%NULL%0,                           Xuan%Dong%NULL%0,                           Jieming%Qu%NULL%0,                           Fengyun%Gong%NULL%0,                           Yang%Han%NULL%0,                           Yang%Qiu%NULL%0,                           Jingli%Wang%NULL%0,                           Ying%Liu%NULL%0,                           Yuan%Wei%NULL%0,                           Jia'an%Xia%NULL%0,                           Ting%Yu%NULL%0,                           Xinxin%Zhang%NULL%0,                           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,                           Adam%Bernheim%NULL%2,                           Adam%Bernheim%NULL%0,                           Xueyan%Mei%NULL%0,                           Xueyan%Mei%NULL%0,                           Ning%Zhang%NULL%0,                           Ning%Zhang%NULL%0,                           Mingqian%Huang%NULL%0,                           Mingqian%Huang%NULL%0,                           Xianjun%Zeng%NULL%1,                           Jiufa%Cui%NULL%1,                           Wenjian%Xu%NULL%2,                           Wenjian%Xu%NULL%0,                           Yang%Yang%NULL%0,                           Zahi A.%Fayad%NULL%0,                           Zahi A.%Fayad%NULL%0,                           Adam%Jacobi%NULL%0,                           Kunwei%Li%NULL%0,                           Shaolin%Li%NULL%0,                           Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,                           Jie%Qin%qinjie@mail.sysu.edu.cn%2,                           Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,                           M%Zhao%NULL%1,                           S%Li%NULL%1,                           L%Yang%NULL%1,                           B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                           Huangqi%Zhang%NULL%4,                           Huangqi%Zhang%NULL%0,                           Jicheng%Xie%NULL%4,                           Jicheng%Xie%NULL%0,                           Minjie%Lin%NULL%2,                           Minjie%Lin%NULL%0,                           Lingjun%Ying%NULL%2,                           Lingjun%Ying%NULL%0,                           Peipei%Pang%NULL%4,                           Peipei%Pang%NULL%0,                           Wenbin%Ji%1224190004@qq.com%4,                           Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                           Huangqi%Zhang%NULL%0,                           Huangqi%Zhang%NULL%0,                           Yunyu%Xu%NULL%2,                           Yunyu%Xu%NULL%0,                           Jicheng%Xie%NULL%0,                           Jicheng%Xie%NULL%0,                           Peipei%Pang%NULL%0,                           Peipei%Pang%NULL%0,                           Wenbin%Ji%1224190004@qq.com%0,                           Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,                           Domenico%Benvenuto%NULL%1,                           Silvia%Angeletti%s.angeletti@unicampus.it%2,                           Silvia%Angeletti%s.angeletti@unicampus.it%0,                           Massimo%Ciccozzi%NULL%2,                           Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,                           M.%Li%NULL%1,                           X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,                           Chas%DeBolt%NULL%1,                           Scott%Lindquist%NULL%1,                           Kathy H.%Lofy%NULL%1,                           John%Wiesman%NULL%1,                           Hollianne%Bruce%NULL%0,                           Christopher%Spitters%NULL%0,                           Keith%Ericson%NULL%1,                           Sara%Wilkerson%NULL%1,                           Ahmet%Tural%NULL%1,                           George%Diaz%NULL%1,                           Amanda%Cohn%NULL%2,                           LeAnne%Fox%NULL%1,                           Anita%Patel%NULL%1,                           Susan I.%Gerber%NULL%1,                           Lindsay%Kim%NULL%1,                           Suxiang%Tong%NULL%1,                           Xiaoyan%Lu%NULL%1,                           Steve%Lindstrom%NULL%1,                           Mark A.%Pallansch%NULL%1,                           William C.%Weldon%NULL%1,                           Holly M.%Biggs%NULL%1,                           Timothy M.%Uyeki%NULL%0,                           Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                           Yeming%Wang%NULL%0,                           Xingwang%Li%NULL%0,                           Lili%Ren%NULL%0,                           Jianping%Zhao%NULL%0,                           Yi%Hu%NULL%0,                           Li%Zhang%NULL%0,                           Guohui%Fan%NULL%0,                           Jiuyang%Xu%NULL%0,                           Xiaoying%Gu%NULL%0,                           Zhenshun%Cheng%NULL%0,                           Ting%Yu%NULL%0,                           Jiaan%Xia%NULL%0,                           Yuan%Wei%NULL%0,                           Wenjuan%Wu%NULL%0,                           Xuelei%Xie%NULL%0,                           Wen%Yin%NULL%0,                           Hui%Li%NULL%0,                           Min%Liu%NULL%0,                           Yan%Xiao%NULL%0,                           Hong%Gao%NULL%0,                           Li%Guo%NULL%0,                           Jungang%Xie%NULL%0,                           Guangfa%Wang%NULL%0,                           Rongmeng%Jiang%NULL%0,                           Zhancheng%Gao%NULL%0,                           Qi%Jin%NULL%0,                           Jianwei%Wang%wangjw28@163.com%0,                           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,                           Tianzhu%Liu%NULL%2,                           Tianzhu%Liu%NULL%0,                           Lesheng%Huang%NULL%2,                           Lesheng%Huang%NULL%0,                           Hailong%Liu%NULL%2,                           Hailong%Liu%NULL%0,                           Ming%Lei%NULL%1,                           Wangdong%Xu%NULL%2,                           Wangdong%Xu%NULL%0,                           Xiaolu%Hu%NULL%1,                           Jun%Chen%NULL%3,                           Bo%Liu%liubogzcm@163.com%3,                           Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                           Juanjuan%Guo%NULL%0,                           Chen%Wang%NULL%0,                           Fan%Luo%NULL%0,                           Xuechen%Yu%NULL%0,                           Wei%Zhang%NULL%0,                           Jiafu%Li%NULL%0,                           Dongchi%Zhao%NULL%0,                           Dan%Xu%NULL%0,                           Qing%Gong%NULL%0,                           Jing%Liao%NULL%0,                           Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                           Wei%Hou%houwei@whu.edu.cn%0,                           Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,                           Junfeng%Li%NULL%1,                           Xun%Li%NULL%0,                           Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,                           Xuhua%Guan%NULL%1,                           Peng%Wu%NULL%1,                           Xiaoye%Wang%NULL%1,                           Lei%Zhou%NULL%0,                           Yeqing%Tong%NULL%1,                           Ruiqi%Ren%NULL%1,                           Kathy S.M.%Leung%NULL%1,                           Eric H.Y.%Lau%NULL%1,                           Jessica Y.%Wong%NULL%1,                           Xuesen%Xing%NULL%1,                           Nijuan%Xiang%NULL%0,                           Yang%Wu%NULL%1,                           Chao%Li%NULL%1,                           Qi%Chen%NULL%1,                           Dan%Li%NULL%1,                           Tian%Liu%NULL%1,                           Jing%Zhao%NULL%1,                           Man%Liu%NULL%1,                           Wenxiao%Tu%NULL%1,                           Chuding%Chen%NULL%1,                           Lianmei%Jin%NULL%1,                           Rui%Yang%NULL%1,                           Qi%Wang%NULL%1,                           Suhua%Zhou%NULL%1,                           Rui%Wang%NULL%2,                           Hui%Liu%NULL%0,                           Yinbo%Luo%NULL%1,                           Yuan%Liu%NULL%1,                           Ge%Shao%NULL%1,                           Huan%Li%NULL%1,                           Zhongfa%Tao%NULL%1,                           Yang%Yang%NULL%0,                           Zhiqiang%Deng%NULL%1,                           Boxi%Liu%NULL%1,                           Zhitao%Ma%NULL%1,                           Yanping%Zhang%NULL%1,                           Guoqing%Shi%NULL%1,                           Tommy T.Y.%Lam%NULL%1,                           Joseph T.%Wu%NULL%1,                           George F.%Gao%NULL%3,                           Benjamin J.%Cowling%NULL%2,                           Bo%Yang%NULL%4,                           Bo%Yang%NULL%0,                           Gabriel M.%Leung%NULL%1,                           Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,                           Zhenyu%Gong%NULL%2,                           Zhenyu%Gong%NULL%0,                           Zuke%Xiao%NULL%2,                           Zuke%Xiao%NULL%0,                           Jingliang%Xiong%NULL%1,                           Bing%Fan%NULL%2,                           Jiaqi%Liu%NULL%2,                           Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                           Yuan-Yuan%Fang%NULL%0,                           Yan%Deng%NULL%0,                           Wei%Liu%NULL%0,                           Mei-Fang%Wang%NULL%0,                           Jing-Ping%Ma%NULL%0,                           Wei%Xiao%NULL%0,                           Ying-Nan%Wang%NULL%0,                           Min-Hua%Zhong%NULL%0,                           Cheng-Hong%Li%NULL%0,                           Guang-Cai%Li%NULL%0,                           Hui-Guo%Liu%NULL%0,                           Xiu-Yuan%Hao%NULL%0,                           Xiu-Yuan%Hao%NULL%0,                           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,                           Xian-zheng%Tan%xianzhengtan@163.com%2,                           Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                           Tianhe%Ye%NULL%0,                           Tianhe%Ye%NULL%0,                           Peng%Sun%NULL%0,                           Peng%Sun%NULL%0,                           Shan%Gui%NULL%0,                           Shan%Gui%NULL%0,                           Bo%Liang%NULL%0,                           Bo%Liang%NULL%0,                           Lingli%Li%NULL%0,                           Lingli%Li%NULL%0,                           Dandan%Zheng%NULL%0,                           Dandan%Zheng%NULL%0,                           Jiazheng%Wang%NULL%0,                           Jiazheng%Wang%NULL%0,                           Richard L.%Hesketh%NULL%0,                           Richard L.%Hesketh%NULL%0,                           Lian%Yang%yanglian@hust.edu.cn%0,                           Lian%Yang%yanglian@hust.edu.cn%0,                           Chuansheng%Zheng%NULL%0,                           Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,                           Thuong V.%Nguyen%NULL%1,                           Quang C.%Luong%NULL%1,                           Thinh V.%Nguyen%NULL%1,                           Hieu T.%Nguyen%NULL%1,                           Hung Q.%Le%NULL%2,                           Hung Q.%Le%NULL%0,                           Thuc T.%Nguyen%NULL%1,                           Thang M.%Cao%NULL%2,                           Thang M.%Cao%NULL%0,                           Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,                           Krit%Pongpirul%NULL%2,                           Krit%Pongpirul%NULL%0,                           Anuttra C.%Ratnarathon%NULL%2,                           Anuttra C.%Ratnarathon%NULL%0,                           Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                           Ye-Ming%Wang%NULL%1,                           Zhi-Qiang%Wu%NULL%1,                           Zi-Chun%Xiang%NULL%1,                           Li%Guo%NULL%0,                           Teng%Xu%NULL%1,                           Yong-Zhong%Jiang%NULL%1,                           Yan%Xiong%NULL%0,                           Yong-Jun%Li%NULL%1,                           Xing-Wang%Li%NULL%1,                           Hui%Li%NULL%0,                           Guo-Hui%Fan%NULL%1,                           Xiao-Ying%Gu%NULL%1,                           Yan%Xiao%NULL%0,                           Hong%Gao%NULL%0,                           Jiu-Yang%Xu%NULL%1,                           Fan%Yang%NULL%1,                           Xin-Ming%Wang%NULL%1,                           Chao%Wu%NULL%1,                           Lan%Chen%NULL%1,                           Yi-Wei%Liu%NULL%1,                           Bo%Liu%NULL%0,                           Jian%Yang%NULL%1,                           Xiao-Rui%Wang%NULL%1,                           Jie%Dong%NULL%1,                           Li%Li%NULL%0,                           Chao-Lin%Huang%NULL%1,                           Jian-Ping%Zhao%NULL%1,                           Yi%Hu%NULL%0,                           Zhen-Shun%Cheng%NULL%1,                           Lin-Lin%Liu%NULL%1,                           Zhao-Hui%Qian%NULL%1,                           Chuan%Qin%NULL%1,                           Qi%Jin%NULL%0,                           Bin%Cao%NULL%0,                           Jian-Wei%Wang%NULL%1,                           Xiu-Yuan%Hao%NULL%0,                           Xiu-Yuan%Hao%NULL%0,                           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,                           Mirjam%Schunk%NULL%1,                           Peter%Sothmann%NULL%1,                           Gisela%Bretzel%NULL%1,                           Guenter%Froeschl%NULL%1,                           Claudia%Wallrauch%NULL%1,                           Thorbjörn%Zimmer%NULL%1,                           Verena%Thiel%NULL%1,                           Christian%Janke%NULL%1,                           Wolfgang%Guggemos%NULL%2,                           Wolfgang%Guggemos%NULL%0,                           Michael%Seilmaier%NULL%1,                           Christian%Drosten%NULL%2,                           Christian%Drosten%NULL%0,                           Patrick%Vollmar%NULL%2,                           Patrick%Vollmar%NULL%0,                           Katrin%Zwirglmaier%NULL%1,                           Sabine%Zange%NULL%1,                           Roman%Wölfel%NULL%1,                           Michael%Hoelscher%NULL%2,                           Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,                           Xiaoyu%Han%NULL%2,                           Xiaoyu%Han%NULL%0,                           Chuansheng%Zheng%hqzcsxh@sina.com%0,                           Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,                           Lynfa%Stroud%NULL%1,                           Graham Edward%Cleghorn%NULL%1,                           Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,                           Nannan%Shi%NULL%2,                           Nannan%Shi%NULL%0,                           Fei%Shan%NULL%1,                           Zhiyong%Zhang%NULL%1,                           Jie%Shen%NULL%1,                           Hongzhou%Lu%NULL%0,                           Yun%Ling%NULL%0,                           Yebin%Jiang%NULL%2,                           Yebin%Jiang%NULL%0,                           Yuxin%Shi%shiyuxin@shphc.org.cn%0,                           Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,                           Jianming%Tang%15900792812@163.com%1,                           Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                           Zheng-yi%Ni%NULL%0,                           Zheng-yi%Ni%NULL%0,                           Yu%Hu%NULL%0,                           Wen-hua%Liang%NULL%0,                           Chun-quan%Ou%NULL%0,                           Jian-xing%He%NULL%0,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chun-liang%Lei%NULL%0,                           David S.C.%Hui%NULL%0,                           Bin%Du%NULL%0,                           Lan-juan%Li%NULL%0,                           Guang%Zeng%NULL%0,                           Kwok-Yung%Yuen%NULL%0,                           Ru-chong%Chen%NULL%0,                           Chun-li%Tang%NULL%0,                           Tao%Wang%NULL%0,                           Ping-yan%Chen%NULL%0,                           Jie%Xiang%NULL%0,                           Shi-yue%Li%NULL%0,                           Jin-lin%Wang%NULL%0,                           Zi-jing%Liang%NULL%0,                           Yi-xiang%Peng%NULL%0,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Ya-hua%Hu%NULL%0,                           Peng%Peng%NULL%0,                           Jian-ming%Wang%NULL%0,                           Ji-yang%Liu%NULL%0,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhi-jian%Zheng%NULL%0,                           Shao-qin%Qiu%NULL%0,                           Jie%Luo%NULL%0,                           Chang-jiang%Ye%NULL%0,                           Shao-yong%Zhu%NULL%0,                           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,                           Zheng%Zhong%NULL%2,                           Zheng%Zhong%NULL%0,                           Wei%Zhao%NULL%2,                           Wei%Zhao%NULL%0,                           Chao%Zheng%NULL%2,                           Chao%Zheng%NULL%0,                           Fei%Wang%NULL%2,                           Fei%Wang%NULL%0,                           Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,                           Chengcheng%Yu%1515185140@qq.com%0,                           Lieguang%Zhang%zhlieguang@126.com%0,                           Liangping%Luo%tluolp@jnu.edu.cn%0,                           Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                           Xiao-Xin%Wu%NULL%0,                           Xian-Gao%Jiang%NULL%0,                           Kai-Jin%Xu%NULL%0,                           Ling-Jun%Ying%NULL%0,                           Chun-Lian%Ma%NULL%0,                           Shi-Bo%Li%NULL%0,                           Hua-Ying%Wang%NULL%0,                           Sheng%Zhang%NULL%0,                           Hai-Nv%Gao%NULL%0,                           Ji-Fang%Sheng%NULL%0,                           Hong-Liu%Cai%NULL%0,                           Yun-Qing%Qiu%NULL%0,                           Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,                           Xiaochen%Li%NULL%2,                           Xiaochen%Li%NULL%0,                           Wei%Zhang%NULL%0,                           Zheng-Li%Shi%NULL%1,                           Zhishui%Zheng%NULL%1,                           Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,                           Nak-Jung%Kwon%NULL%2,                           Nak-Jung%Kwon%NULL%0,                           Su-Jin%Choi%NULL%2,                           Su-Jin%Choi%NULL%0,                           Chang Kyung%Kang%NULL%2,                           Chang Kyung%Kang%NULL%0,                           Pyoeng Gyun%Choe%NULL%4,                           Pyoeng Gyun%Choe%NULL%0,                           Jin Yong%Kim%NULL%4,                           Jin Yong%Kim%NULL%0,                           Jiyoung%Yun%NULL%2,                           Jiyoung%Yun%NULL%0,                           Gir-Won%Lee%NULL%2,                           Gir-Won%Lee%NULL%0,                           Moon-Woo%Seong%NULL%2,                           Moon-Woo%Seong%NULL%0,                           Nam Joong%Kim%NULL%2,                           Nam Joong%Kim%NULL%0,                           Jeong-Sun%Seo%NULL%2,                           Jeong-Sun%Seo%NULL%0,                           Myoung-don%Oh%NULL%4,                           Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,                           Seunghyun%Jeon%NULL%2,                           Seunghyun%Jeon%NULL%0,                           Hyun-Young%Shin%NULL%2,                           Hyun-Young%Shin%NULL%0,                           Moon Jung%Kim%NULL%2,                           Moon Jung%Kim%NULL%0,                           Yu Min%Seong%NULL%2,                           Yu Min%Seong%NULL%0,                           Wang Jun%Lee%NULL%2,                           Wang Jun%Lee%NULL%0,                           Kang-Won%Choe%NULL%2,                           Kang-Won%Choe%NULL%0,                           Yu Min%Kang%NULL%2,                           Yu Min%Kang%NULL%0,                           Baeckseung%Lee%NULL%2,                           Baeckseung%Lee%NULL%0,                           Sang-Joon%Park%NULL%2,                           Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,                           Pyoeng Gyun%Choe%NULL%0,                           Pyoeng Gyun%Choe%NULL%0,                           Yoonju%Oh%NULL%2,                           Yoonju%Oh%NULL%0,                           Kyung Joong%Oh%NULL%2,                           Kyung Joong%Oh%NULL%0,                           Jinsil%Kim%NULL%2,                           Jinsil%Kim%NULL%0,                           So Jeong%Park%NULL%2,                           So Jeong%Park%NULL%0,                           Ji Hye%Park%NULL%2,                           Ji Hye%Park%NULL%0,                           Hye Kyoung%Na%NULL%2,                           Hye Kyoung%Na%NULL%0,                           Myoung-don%Oh%NULL%0,                           Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,                           Dingyu%Zhang%NULL%3,                           Wenling%Wang%NULL%2,                           Xingwang%Li%NULL%0,                           Bo%Yang%NULL%0,                           Jingdong%Song%NULL%2,                           Xiang%Zhao%NULL%2,                           Baoying%Huang%NULL%2,                           Weifeng%Shi%NULL%2,                           Roujian%Lu%NULL%2,                           Peihua%Niu%NULL%2,                           Faxian%Zhan%NULL%2,                           Xuejun%Ma%NULL%2,                           Dayan%Wang%NULL%2,                           Wenbo%Xu%NULL%2,                           Guizhen%Wu%NULL%2,                           George F.%Gao%NULL%0,                           Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                           Shuofeng%Yuan%NULL%1,                           Kin-Hang%Kok%NULL%1,                           Kelvin Kai-Wang%To%NULL%1,                           Hin%Chu%NULL%1,                           Jin%Yang%NULL%1,                           Fanfan%Xing%NULL%1,                           Jieling%Liu%NULL%1,                           Cyril Chik-Yan%Yip%NULL%1,                           Rosana Wing-Shan%Poon%NULL%1,                           Hoi-Wah%Tsoi%NULL%1,                           Simon Kam-Fai%Lo%NULL%1,                           Kwok-Hung%Chan%NULL%0,                           Vincent Kwok-Man%Poon%NULL%1,                           Wan-Mui%Chan%NULL%1,                           Jonathan Daniel%Ip%NULL%1,                           Jian-Piao%Cai%NULL%1,                           Vincent Chi-Chung%Cheng%NULL%1,                           Honglin%Chen%NULL%1,                           Christopher Kim-Ming%Hui%NULL%1,                           Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                            Dengju%Li%NULL%0,                            Xiong%Wang%NULL%0,                            Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,                            Hanxiong%Guan%NULL%1,                            Shuchang%Zhou%NULL%1,                            Yujin%Wang%NULL%1,                            Qian%Li%NULL%1,                            Tingting%Zhu%NULL%1,                            Qiongjie%Hu%qjhu@outlook.com%1,                            Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,                            Jenny%Chen%NULL%1,                            Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,                            Yang%Yang%NULL%4,                            Cong%Zhang%NULL%0,                            Fengming%Huang%NULL%1,                            Fuxiang%Wang%NULL%1,                            Jing%Yuan%NULL%1,                            Zhaoqin%Wang%NULL%0,                            Jinxiu%Li%NULL%1,                            Jianming%Li%NULL%1,                            Cheng%Feng%NULL%1,                            Zheng%Zhang%NULL%1,                            Lifei%Wang%NULL%1,                            Ling%Peng%NULL%1,                            Li%Chen%NULL%0,                            Yuhao%Qin%NULL%1,                            Dandan%Zhao%NULL%1,                            Shuguang%Tan%NULL%1,                            Lu%Yin%NULL%2,                            Jun%Xu%NULL%1,                            Congzhao%Zhou%NULL%1,                            Chengyu%Jiang%jiang@pumc.edu.cn%1,                            Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,                            Xueyan%Mei%NULL%4,                            Xueyan%Mei%NULL%0,                            Mingqian%Huang%NULL%4,                            Mingqian%Huang%NULL%0,                            Yang%Yang%NULL%0,                            Zahi A.%Fayad%NULL%0,                            Zahi A.%Fayad%NULL%0,                            Ning%Zhang%NULL%4,                            Ning%Zhang%NULL%0,                            Kaiyue%Diao%NULL%2,                            Kaiyue%Diao%NULL%0,                            Bin%Lin%NULL%1,                            Xiqi%Zhu%NULL%2,                            Xiqi%Zhu%NULL%0,                            Kunwei%Li%NULL%2,                            Shaolin%Li%NULL%2,                            Hong%Shan%NULL%0,                            Adam%Jacobi%NULL%3,                            Adam%Jacobi%NULL%0,                            Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,                            Ranjit%Sah%ranjitsah@iom.edu.np%0,                            Alfonso J%Rodriguez-Morales%NULL%1,                            Bibek Kumar%Lal%NULL%1,                            Runa%Jha%NULL%1,                            Hemant Chanda%Ojha%NULL%1,                            Bikesh%Shrestha%NULL%1,                            Daniel K W%Chu%NULL%1,                            Leo L M%Poon%NULL%1,                            Anthony%Costello%NULL%1,                            Kouichi%Morita%NULL%1,                            Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                            Min%Zhou%NULL%0,                            Xuan%Dong%NULL%0,                            Jieming%Qu%NULL%0,                            Fengyun%Gong%NULL%0,                            Yang%Han%NULL%0,                            Yang%Qiu%NULL%0,                            Jingli%Wang%NULL%0,                            Ying%Liu%NULL%0,                            Yuan%Wei%NULL%0,                            Jia'an%Xia%NULL%0,                            Ting%Yu%NULL%0,                            Xinxin%Zhang%NULL%0,                            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,                            Adam%Bernheim%NULL%2,                            Adam%Bernheim%NULL%0,                            Xueyan%Mei%NULL%0,                            Xueyan%Mei%NULL%0,                            Ning%Zhang%NULL%0,                            Ning%Zhang%NULL%0,                            Mingqian%Huang%NULL%0,                            Mingqian%Huang%NULL%0,                            Xianjun%Zeng%NULL%1,                            Jiufa%Cui%NULL%1,                            Wenjian%Xu%NULL%2,                            Wenjian%Xu%NULL%0,                            Yang%Yang%NULL%0,                            Zahi A.%Fayad%NULL%0,                            Zahi A.%Fayad%NULL%0,                            Adam%Jacobi%NULL%0,                            Kunwei%Li%NULL%0,                            Shaolin%Li%NULL%0,                            Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,                            Jie%Qin%qinjie@mail.sysu.edu.cn%2,                            Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,                            M%Zhao%NULL%1,                            S%Li%NULL%1,                            L%Yang%NULL%1,                            B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                            Huangqi%Zhang%NULL%4,                            Huangqi%Zhang%NULL%0,                            Jicheng%Xie%NULL%4,                            Jicheng%Xie%NULL%0,                            Minjie%Lin%NULL%2,                            Minjie%Lin%NULL%0,                            Lingjun%Ying%NULL%2,                            Lingjun%Ying%NULL%0,                            Peipei%Pang%NULL%4,                            Peipei%Pang%NULL%0,                            Wenbin%Ji%1224190004@qq.com%4,                            Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                            Huangqi%Zhang%NULL%0,                            Huangqi%Zhang%NULL%0,                            Yunyu%Xu%NULL%2,                            Yunyu%Xu%NULL%0,                            Jicheng%Xie%NULL%0,                            Jicheng%Xie%NULL%0,                            Peipei%Pang%NULL%0,                            Peipei%Pang%NULL%0,                            Wenbin%Ji%1224190004@qq.com%0,                            Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,                            Domenico%Benvenuto%NULL%1,                            Silvia%Angeletti%s.angeletti@unicampus.it%2,                            Silvia%Angeletti%s.angeletti@unicampus.it%0,                            Massimo%Ciccozzi%NULL%2,                            Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,                            M.%Li%NULL%1,                            X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,                            Chas%DeBolt%NULL%1,                            Scott%Lindquist%NULL%1,                            Kathy H.%Lofy%NULL%1,                            John%Wiesman%NULL%1,                            Hollianne%Bruce%NULL%0,                            Christopher%Spitters%NULL%0,                            Keith%Ericson%NULL%1,                            Sara%Wilkerson%NULL%1,                            Ahmet%Tural%NULL%1,                            George%Diaz%NULL%1,                            Amanda%Cohn%NULL%2,                            LeAnne%Fox%NULL%1,                            Anita%Patel%NULL%1,                            Susan I.%Gerber%NULL%1,                            Lindsay%Kim%NULL%1,                            Suxiang%Tong%NULL%1,                            Xiaoyan%Lu%NULL%1,                            Steve%Lindstrom%NULL%1,                            Mark A.%Pallansch%NULL%1,                            William C.%Weldon%NULL%1,                            Holly M.%Biggs%NULL%1,                            Timothy M.%Uyeki%NULL%0,                            Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                            Yeming%Wang%NULL%0,                            Xingwang%Li%NULL%0,                            Lili%Ren%NULL%0,                            Jianping%Zhao%NULL%0,                            Yi%Hu%NULL%0,                            Li%Zhang%NULL%0,                            Guohui%Fan%NULL%0,                            Jiuyang%Xu%NULL%0,                            Xiaoying%Gu%NULL%0,                            Zhenshun%Cheng%NULL%0,                            Ting%Yu%NULL%0,                            Jiaan%Xia%NULL%0,                            Yuan%Wei%NULL%0,                            Wenjuan%Wu%NULL%0,                            Xuelei%Xie%NULL%0,                            Wen%Yin%NULL%0,                            Hui%Li%NULL%0,                            Min%Liu%NULL%0,                            Yan%Xiao%NULL%0,                            Hong%Gao%NULL%0,                            Li%Guo%NULL%0,                            Jungang%Xie%NULL%0,                            Guangfa%Wang%NULL%0,                            Rongmeng%Jiang%NULL%0,                            Zhancheng%Gao%NULL%0,                            Qi%Jin%NULL%0,                            Jianwei%Wang%wangjw28@163.com%0,                            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,                            Tianzhu%Liu%NULL%2,                            Tianzhu%Liu%NULL%0,                            Lesheng%Huang%NULL%2,                            Lesheng%Huang%NULL%0,                            Hailong%Liu%NULL%2,                            Hailong%Liu%NULL%0,                            Ming%Lei%NULL%1,                            Wangdong%Xu%NULL%2,                            Wangdong%Xu%NULL%0,                            Xiaolu%Hu%NULL%1,                            Jun%Chen%NULL%1,                            Bo%Liu%liubogzcm@163.com%3,                            Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                            Juanjuan%Guo%NULL%0,                            Chen%Wang%NULL%0,                            Fan%Luo%NULL%0,                            Xuechen%Yu%NULL%0,                            Wei%Zhang%NULL%0,                            Jiafu%Li%NULL%0,                            Dongchi%Zhao%NULL%0,                            Dan%Xu%NULL%0,                            Qing%Gong%NULL%0,                            Jing%Liao%NULL%0,                            Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                            Wei%Hou%houwei@whu.edu.cn%0,                            Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,                            Junfeng%Li%NULL%1,                            Xun%Li%NULL%0,                            Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,                            Xuhua%Guan%NULL%1,                            Peng%Wu%NULL%1,                            Xiaoye%Wang%NULL%1,                            Lei%Zhou%NULL%0,                            Yeqing%Tong%NULL%1,                            Ruiqi%Ren%NULL%1,                            Kathy S.M.%Leung%NULL%1,                            Eric H.Y.%Lau%NULL%1,                            Jessica Y.%Wong%NULL%1,                            Xuesen%Xing%NULL%1,                            Nijuan%Xiang%NULL%0,                            Yang%Wu%NULL%1,                            Chao%Li%NULL%1,                            Qi%Chen%NULL%1,                            Dan%Li%NULL%1,                            Tian%Liu%NULL%1,                            Jing%Zhao%NULL%1,                            Man%Liu%NULL%1,                            Wenxiao%Tu%NULL%1,                            Chuding%Chen%NULL%1,                            Lianmei%Jin%NULL%1,                            Rui%Yang%NULL%1,                            Qi%Wang%NULL%1,                            Suhua%Zhou%NULL%1,                            Rui%Wang%NULL%2,                            Hui%Liu%NULL%0,                            Yinbo%Luo%NULL%1,                            Yuan%Liu%NULL%1,                            Ge%Shao%NULL%1,                            Huan%Li%NULL%1,                            Zhongfa%Tao%NULL%1,                            Yang%Yang%NULL%0,                            Zhiqiang%Deng%NULL%1,                            Boxi%Liu%NULL%1,                            Zhitao%Ma%NULL%1,                            Yanping%Zhang%NULL%1,                            Guoqing%Shi%NULL%1,                            Tommy T.Y.%Lam%NULL%1,                            Joseph T.%Wu%NULL%1,                            George F.%Gao%NULL%3,                            Benjamin J.%Cowling%NULL%2,                            Bo%Yang%NULL%4,                            Bo%Yang%NULL%0,                            Gabriel M.%Leung%NULL%1,                            Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,                            Zhenyu%Gong%NULL%2,                            Zhenyu%Gong%NULL%0,                            Zuke%Xiao%NULL%2,                            Zuke%Xiao%NULL%0,                            Jingliang%Xiong%NULL%1,                            Bing%Fan%NULL%2,                            Jiaqi%Liu%NULL%2,                            Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                            Yuan-Yuan%Fang%NULL%0,                            Yan%Deng%NULL%0,                            Wei%Liu%NULL%0,                            Mei-Fang%Wang%NULL%0,                            Jing-Ping%Ma%NULL%0,                            Wei%Xiao%NULL%0,                            Ying-Nan%Wang%NULL%0,                            Min-Hua%Zhong%NULL%0,                            Cheng-Hong%Li%NULL%0,                            Guang-Cai%Li%NULL%0,                            Hui-Guo%Liu%NULL%0,                            Xiu-Yuan%Hao%NULL%0,                            Xiu-Yuan%Hao%NULL%0,                            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,                            Xian-zheng%Tan%xianzhengtan@163.com%2,                            Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                            Tianhe%Ye%NULL%0,                            Tianhe%Ye%NULL%0,                            Peng%Sun%NULL%0,                            Peng%Sun%NULL%0,                            Shan%Gui%NULL%0,                            Shan%Gui%NULL%0,                            Bo%Liang%NULL%0,                            Bo%Liang%NULL%0,                            Lingli%Li%NULL%0,                            Lingli%Li%NULL%0,                            Dandan%Zheng%NULL%0,                            Dandan%Zheng%NULL%0,                            Jiazheng%Wang%NULL%0,                            Jiazheng%Wang%NULL%0,                            Richard L.%Hesketh%NULL%0,                            Richard L.%Hesketh%NULL%0,                            Lian%Yang%yanglian@hust.edu.cn%0,                            Lian%Yang%yanglian@hust.edu.cn%0,                            Chuansheng%Zheng%NULL%0,                            Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,                            Thuong V.%Nguyen%NULL%1,                            Quang C.%Luong%NULL%1,                            Thinh V.%Nguyen%NULL%1,                            Hieu T.%Nguyen%NULL%1,                            Hung Q.%Le%NULL%2,                            Hung Q.%Le%NULL%0,                            Thuc T.%Nguyen%NULL%1,                            Thang M.%Cao%NULL%2,                            Thang M.%Cao%NULL%0,                            Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,                            Krit%Pongpirul%NULL%2,                            Krit%Pongpirul%NULL%0,                            Anuttra C.%Ratnarathon%NULL%2,                            Anuttra C.%Ratnarathon%NULL%0,                            Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                            Ye-Ming%Wang%NULL%1,                            Zhi-Qiang%Wu%NULL%1,                            Zi-Chun%Xiang%NULL%1,                            Li%Guo%NULL%0,                            Teng%Xu%NULL%1,                            Yong-Zhong%Jiang%NULL%1,                            Yan%Xiong%NULL%0,                            Yong-Jun%Li%NULL%1,                            Xing-Wang%Li%NULL%1,                            Hui%Li%NULL%0,                            Guo-Hui%Fan%NULL%1,                            Xiao-Ying%Gu%NULL%1,                            Yan%Xiao%NULL%0,                            Hong%Gao%NULL%0,                            Jiu-Yang%Xu%NULL%1,                            Fan%Yang%NULL%1,                            Xin-Ming%Wang%NULL%1,                            Chao%Wu%NULL%1,                            Lan%Chen%NULL%1,                            Yi-Wei%Liu%NULL%1,                            Bo%Liu%NULL%0,                            Jian%Yang%NULL%1,                            Xiao-Rui%Wang%NULL%1,                            Jie%Dong%NULL%1,                            Li%Li%NULL%0,                            Chao-Lin%Huang%NULL%1,                            Jian-Ping%Zhao%NULL%1,                            Yi%Hu%NULL%0,                            Zhen-Shun%Cheng%NULL%1,                            Lin-Lin%Liu%NULL%1,                            Zhao-Hui%Qian%NULL%1,                            Chuan%Qin%NULL%1,                            Qi%Jin%NULL%0,                            Bin%Cao%NULL%0,                            Jian-Wei%Wang%NULL%1,                            Xiu-Yuan%Hao%NULL%0,                            Xiu-Yuan%Hao%NULL%0,                            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,                            Mirjam%Schunk%NULL%1,                            Peter%Sothmann%NULL%1,                            Gisela%Bretzel%NULL%1,                            Guenter%Froeschl%NULL%1,                            Claudia%Wallrauch%NULL%1,                            Thorbjörn%Zimmer%NULL%1,                            Verena%Thiel%NULL%1,                            Christian%Janke%NULL%1,                            Wolfgang%Guggemos%NULL%2,                            Wolfgang%Guggemos%NULL%0,                            Michael%Seilmaier%NULL%1,                            Christian%Drosten%NULL%2,                            Christian%Drosten%NULL%0,                            Patrick%Vollmar%NULL%2,                            Patrick%Vollmar%NULL%0,                            Katrin%Zwirglmaier%NULL%1,                            Sabine%Zange%NULL%1,                            Roman%Wölfel%NULL%1,                            Michael%Hoelscher%NULL%2,                            Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,                            Xiaoyu%Han%NULL%2,                            Xiaoyu%Han%NULL%0,                            Chuansheng%Zheng%hqzcsxh@sina.com%0,                            Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,                            Lynfa%Stroud%NULL%1,                            Graham Edward%Cleghorn%NULL%1,                            Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,                            Nannan%Shi%NULL%2,                            Nannan%Shi%NULL%0,                            Fei%Shan%NULL%1,                            Zhiyong%Zhang%NULL%1,                            Jie%Shen%NULL%1,                            Hongzhou%Lu%NULL%0,                            Yun%Ling%NULL%0,                            Yebin%Jiang%NULL%2,                            Yebin%Jiang%NULL%0,                            Yuxin%Shi%shiyuxin@shphc.org.cn%0,                            Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,                            Jianming%Tang%15900792812@163.com%1,                            Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                            Zheng-yi%Ni%NULL%0,                            Zheng-yi%Ni%NULL%0,                            Yu%Hu%NULL%0,                            Wen-hua%Liang%NULL%0,                            Chun-quan%Ou%NULL%0,                            Jian-xing%He%NULL%0,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chun-liang%Lei%NULL%0,                            David S.C.%Hui%NULL%0,                            Bin%Du%NULL%0,                            Lan-juan%Li%NULL%0,                            Guang%Zeng%NULL%0,                            Kwok-Yung%Yuen%NULL%0,                            Ru-chong%Chen%NULL%0,                            Chun-li%Tang%NULL%0,                            Tao%Wang%NULL%0,                            Ping-yan%Chen%NULL%0,                            Jie%Xiang%NULL%0,                            Shi-yue%Li%NULL%0,                            Jin-lin%Wang%NULL%0,                            Zi-jing%Liang%NULL%0,                            Yi-xiang%Peng%NULL%0,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Ya-hua%Hu%NULL%0,                            Peng%Peng%NULL%0,                            Jian-ming%Wang%NULL%0,                            Ji-yang%Liu%NULL%0,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhi-jian%Zheng%NULL%0,                            Shao-qin%Qiu%NULL%0,                            Jie%Luo%NULL%0,                            Chang-jiang%Ye%NULL%0,                            Shao-yong%Zhu%NULL%0,                            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,                            Zheng%Zhong%NULL%2,                            Zheng%Zhong%NULL%0,                            Wei%Zhao%NULL%2,                            Wei%Zhao%NULL%0,                            Chao%Zheng%NULL%2,                            Chao%Zheng%NULL%0,                            Fei%Wang%NULL%2,                            Fei%Wang%NULL%0,                            Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,                            Chengcheng%Yu%1515185140@qq.com%0,                            Lieguang%Zhang%zhlieguang@126.com%0,                            Liangping%Luo%tluolp@jnu.edu.cn%0,                            Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                            Xiao-Xin%Wu%NULL%0,                            Xian-Gao%Jiang%NULL%0,                            Kai-Jin%Xu%NULL%0,                            Ling-Jun%Ying%NULL%0,                            Chun-Lian%Ma%NULL%0,                            Shi-Bo%Li%NULL%0,                            Hua-Ying%Wang%NULL%0,                            Sheng%Zhang%NULL%0,                            Hai-Nv%Gao%NULL%0,                            Ji-Fang%Sheng%NULL%0,                            Hong-Liu%Cai%NULL%0,                            Yun-Qing%Qiu%NULL%0,                            Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,                            Xiaochen%Li%NULL%2,                            Xiaochen%Li%NULL%0,                            Wei%Zhang%NULL%0,                            Zheng-Li%Shi%NULL%1,                            Zhishui%Zheng%NULL%1,                            Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,                            Nak-Jung%Kwon%NULL%2,                            Nak-Jung%Kwon%NULL%0,                            Su-Jin%Choi%NULL%2,                            Su-Jin%Choi%NULL%0,                            Chang Kyung%Kang%NULL%2,                            Chang Kyung%Kang%NULL%0,                            Pyoeng Gyun%Choe%NULL%4,                            Pyoeng Gyun%Choe%NULL%0,                            Jin Yong%Kim%NULL%4,                            Jin Yong%Kim%NULL%0,                            Jiyoung%Yun%NULL%2,                            Jiyoung%Yun%NULL%0,                            Gir-Won%Lee%NULL%2,                            Gir-Won%Lee%NULL%0,                            Moon-Woo%Seong%NULL%2,                            Moon-Woo%Seong%NULL%0,                            Nam Joong%Kim%NULL%2,                            Nam Joong%Kim%NULL%0,                            Jeong-Sun%Seo%NULL%2,                            Jeong-Sun%Seo%NULL%0,                            Myoung-don%Oh%NULL%4,                            Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,                            Seunghyun%Jeon%NULL%2,                            Seunghyun%Jeon%NULL%0,                            Hyun-Young%Shin%NULL%2,                            Hyun-Young%Shin%NULL%0,                            Moon Jung%Kim%NULL%2,                            Moon Jung%Kim%NULL%0,                            Yu Min%Seong%NULL%2,                            Yu Min%Seong%NULL%0,                            Wang Jun%Lee%NULL%2,                            Wang Jun%Lee%NULL%0,                            Kang-Won%Choe%NULL%2,                            Kang-Won%Choe%NULL%0,                            Yu Min%Kang%NULL%2,                            Yu Min%Kang%NULL%0,                            Baeckseung%Lee%NULL%2,                            Baeckseung%Lee%NULL%0,                            Sang-Joon%Park%NULL%2,                            Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,                            Pyoeng Gyun%Choe%NULL%0,                            Pyoeng Gyun%Choe%NULL%0,                            Yoonju%Oh%NULL%2,                            Yoonju%Oh%NULL%0,                            Kyung Joong%Oh%NULL%2,                            Kyung Joong%Oh%NULL%0,                            Jinsil%Kim%NULL%2,                            Jinsil%Kim%NULL%0,                            So Jeong%Park%NULL%2,                            So Jeong%Park%NULL%0,                            Ji Hye%Park%NULL%2,                            Ji Hye%Park%NULL%0,                            Hye Kyoung%Na%NULL%2,                            Hye Kyoung%Na%NULL%0,                            Myoung-don%Oh%NULL%0,                            Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,                            Dingyu%Zhang%NULL%3,                            Wenling%Wang%NULL%2,                            Xingwang%Li%NULL%0,                            Bo%Yang%NULL%0,                            Jingdong%Song%NULL%2,                            Xiang%Zhao%NULL%2,                            Baoying%Huang%NULL%2,                            Weifeng%Shi%NULL%2,                            Roujian%Lu%NULL%2,                            Peihua%Niu%NULL%2,                            Faxian%Zhan%NULL%2,                            Xuejun%Ma%NULL%2,                            Dayan%Wang%NULL%2,                            Wenbo%Xu%NULL%2,                            Guizhen%Wu%NULL%2,                            George F.%Gao%NULL%0,                            Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                            Shuofeng%Yuan%NULL%1,                            Kin-Hang%Kok%NULL%1,                            Kelvin Kai-Wang%To%NULL%1,                            Hin%Chu%NULL%1,                            Jin%Yang%NULL%1,                            Fanfan%Xing%NULL%1,                            Jieling%Liu%NULL%1,                            Cyril Chik-Yan%Yip%NULL%1,                            Rosana Wing-Shan%Poon%NULL%1,                            Hoi-Wah%Tsoi%NULL%1,                            Simon Kam-Fai%Lo%NULL%1,                            Kwok-Hung%Chan%NULL%0,                            Vincent Kwok-Man%Poon%NULL%1,                            Wan-Mui%Chan%NULL%1,                            Jonathan Daniel%Ip%NULL%1,                            Jian-Piao%Cai%NULL%1,                            Vincent Chi-Chung%Cheng%NULL%1,                            Honglin%Chen%NULL%1,                            Christopher Kim-Ming%Hui%NULL%1,                            Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0, Dengju%Li%NULL%0, Xiong%Wang%NULL%0, Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>International Society on Thrombosis and Haemostasis. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%0, Hanxiong%Guan%NULL%1, Shuchang%Zhou%NULL%0, Yujin%Wang%NULL%0, Qian%Li%NULL%2, Tingting%Zhu%NULL%1, Qiongjie%Hu%qjhu@outlook.com%1, Liming%Xia%lmxia@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%0, Jenny%Chen%NULL%1, Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0, Yang%Yang%NULL%0, Cong%Zhang%NULL%0, Fengming%Huang%NULL%3, Fuxiang%Wang%NULL%3, Jing%Yuan%NULL%0, Zhaoqin%Wang%NULL%0, Jinxiu%Li%NULL%3, Jianming%Li%NULL%3, Cheng%Feng%NULL%4, Zheng%Zhang%NULL%4, Lifei%Wang%NULL%4, Ling%Peng%NULL%3, Li%Chen%NULL%0, Yuhao%Qin%NULL%3, Dandan%Zhao%NULL%3, Shuguang%Tan%NULL%3, Lu%Yin%NULL%6, Jun%Xu%NULL%3, Congzhao%Zhou%NULL%3, Chengyu%Jiang%jiang@pumc.edu.cn%3, Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>Science China Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this retrospective study, chest CTs of 121 symptomatic patients infected with coronavirus disease-19 (COVID-19) from four centers in China from January 18, 2020 to February 2, 2020 were reviewed for common CT findings in relationship to the time between symptom onset and the initial CT scan (i.
+e.
+ early, 0-2 days (36 patients), intermediate 3-5 days (33 patients), late 6-12 days (25 patients)).
+ The hallmarks of COVID-19 infection on imaging were bilateral and peripheral ground-glass and consolidative pulmonary opacities.
+ Notably, 20/36 (56%) of early patients had a normal CT.
+ With a longer time after the onset of symptoms, CT findings were more frequent, including consolidation, bilateral and peripheral disease, greater total lung involvement, linear opacities, “crazy-paving” pattern and the “reverse halo” sign.
+ Bilateral lung involvement was observed in 10/36 early patients (28%), 25/33 intermediate patients (76%), and 22/25 late patients (88%).
+</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%0, Xueyan%Mei%NULL%4, Xueyan%Mei%NULL%0, Mingqian%Huang%NULL%4, Mingqian%Huang%NULL%0, Yang%Yang%NULL%0, Zahi A.%Fayad%NULL%0, Zahi A.%Fayad%NULL%0, Ning%Zhang%NULL%4, Ning%Zhang%NULL%0, Kaiyue%Diao%NULL%2, Kaiyue%Diao%NULL%0, Bin%Lin%NULL%1, Xiqi%Zhu%NULL%2, Xiqi%Zhu%NULL%0, Kunwei%Li%NULL%2, Shaolin%Li%NULL%2, Hong%Shan%NULL%0, Adam%Jacobi%NULL%3, Adam%Jacobi%NULL%0, Michael%Chung%NULL%0]</t>
+  </si>
+  <si>
+    <t>Radiological Society of North America</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%0, Ranjit%Sah%ranjitsah@iom.edu.np%0, Alfonso J%Rodriguez-Morales%NULL%1, Bibek Kumar%Lal%NULL%1, Runa%Jha%NULL%1, Hemant Chanda%Ojha%NULL%1, Bikesh%Shrestha%NULL%1, Daniel K W%Chu%NULL%1, Leo L M%Poon%NULL%3, Anthony%Costello%NULL%1, Kouichi%Morita%NULL%1, Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0, Min%Zhou%NULL%0, Xuan%Dong%NULL%0, Jieming%Qu%NULL%0, Fengyun%Gong%NULL%0, Yang%Han%NULL%0, Yang%Qiu%NULL%0, Jingli%Wang%NULL%0, Ying%Liu%NULL%0, Yuan%Wei%NULL%0, Jia'an%Xia%NULL%0, Ting%Yu%NULL%0, Xinxin%Zhang%NULL%0, Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this retrospective case series, chest CT scans of 21 symptomatic patients from China infected with the 2019 novel coronavirus (2019-nCoV) were reviewed, with emphasis on identifying and characterizing the most common findings.
+ Typical CT findings included bilateral pulmonary parenchymal ground-glass and consolidative pulmonary opacities, sometimes with a rounded morphology and a peripheral lung distribution.
+ Notably, lung cavitation, discrete pulmonary nodules, pleural effusions, and lymphadenopathy were absent.
+ Follow-up imaging in a subset of patients during the study time window often demonstrated mild or moderate progression of disease, as manifested by increasing extent and density of lung opacities.
+</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%0, Jie%Qin%qinjie@mail.sysu.edu.cn%2, Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%0, M%Zhao%NULL%1, S%Li%NULL%1, L%Yang%NULL%1, B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0, Huangqi%Zhang%NULL%0, Huangqi%Zhang%NULL%0, Jicheng%Xie%NULL%0, Jicheng%Xie%NULL%0, Minjie%Lin%NULL%0, Minjie%Lin%NULL%0, Lingjun%Ying%NULL%0, Lingjun%Ying%NULL%0, Peipei%Pang%NULL%0, Peipei%Pang%NULL%0, Wenbin%Ji%1224190004@qq.com%0, Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A novel Coronavirus, 2019‐nCoV, has been identified as the causal pathogen of an ongoing epidemic, with the first cases reported in Wuhan, China, last December 2019, and has since spread to other countries worldwide, included Europe and very recently Italy.
+ In this short report, phylogenetic reconstruction was used to better understand the transmission dynamics of the virus from its first introduction in China focusing on the more recent evidence of infection in a couple of Chinese tourists arrived in Italy on 23rd January 2020 and labeled as Coronavirus Italian cases.
+ A maximum clade credibility tree has been built using a dataset of 54 genome sequences of 2019‐nCoV plus two closely related bat strains (SARS‐like CoV) available in GenBank.
+ Bayesian time‐scaled phylogenetic analysis was implemented in BEAST 1.10.4. The Bayesian phylogenetic reconstruction showed that 2019‐2020 nCoV firstly introduced in Wuhan on 25 November 2019, started epidemic transmission reaching many countries worldwide, including Europe and Italy where the two strains isolated dated back 19 January 2020, the same that the Chinese tourists arrived in Italy.
+ Strains isolated outside China were intermixed with strains isolated in China as evidence of likely imported cases in Rome, Italy, and Europe, as well.
+ In conclusion, this report suggests that further spread of 2019‐nCoV epidemic was supported by human mobility and that quarantine of suspected or diagnosed cases is useful to prevent further transmission.
+ Viral genome phylogenetic analysis represents a useful tool for the evaluation of transmission dynamics and preventive action.
+</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%0, Domenico%Benvenuto%NULL%1, Silvia%Angeletti%s.angeletti@unicampus.it%2, Silvia%Angeletti%s.angeletti@unicampus.it%0, Massimo%Ciccozzi%NULL%2, Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%0, M.%Li%NULL%1, X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>European Society of Clinical Microbiology and Infectious Diseases. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An outbreak of novel coronavirus (2019-nCoV) that began in Wuhan, China, has spread rapidly, with cases now confirmed in multiple countries.
+ We report the first case of 2019-nCoV infection confirmed in the United States and describe the identification, diagnosis, clinical course, and management of the case, including the patient’s initial mild symptoms at presentation with progression to pneumonia on day 9 of illness.
+ This case highlights the importance of close coordination between clinicians and public health authorities at the local, state, and federal levels, as well as the need for rapid dissemination of clinical information related to the care of patients with this emerging infection.
+</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%0, Chas%DeBolt%NULL%1, Scott%Lindquist%NULL%1, Kathy H.%Lofy%NULL%1, John%Wiesman%NULL%1, Hollianne%Bruce%NULL%0, Christopher%Spitters%NULL%0, Keith%Ericson%NULL%1, Sara%Wilkerson%NULL%1, Ahmet%Tural%NULL%1, George%Diaz%NULL%2, Amanda%Cohn%NULL%3, LeAnne%Fox%NULL%1, Anita%Patel%NULL%1, Susan I.%Gerber%NULL%0, Lindsay%Kim%NULL%0, Suxiang%Tong%NULL%1, Xiaoyan%Lu%NULL%1, Steve%Lindstrom%NULL%1, Mark A.%Pallansch%NULL%1, William C.%Weldon%NULL%1, Holly M.%Biggs%NULL%0, Timothy M.%Uyeki%NULL%0, Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%0, Xingwang%Li%NULL%0, Lili%Ren%NULL%0, Jianping%Zhao%NULL%0, Yi%Hu%NULL%0, Li%Zhang%NULL%0, Guohui%Fan%NULL%0, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%0, Zhenshun%Cheng%NULL%0, Ting%Yu%NULL%0, Jiaan%Xia%NULL%0, Yuan%Wei%NULL%0, Wenjuan%Wu%NULL%0, Xuelei%Xie%NULL%0, Wen%Yin%NULL%0, Hui%Li%NULL%0, Min%Liu%NULL%0, Yan%Xiao%NULL%0, Hong%Gao%NULL%0, Li%Guo%NULL%0, Jungang%Xie%NULL%0, Guangfa%Wang%NULL%0, Rongmeng%Jiang%NULL%0, Zhancheng%Gao%NULL%0, Qi%Jin%NULL%0, Jianwei%Wang%wangjw28@163.com%0, Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%0, Tianzhu%Liu%NULL%2, Tianzhu%Liu%NULL%0, Lesheng%Huang%NULL%2, Lesheng%Huang%NULL%0, Hailong%Liu%NULL%2, Hailong%Liu%NULL%0, Ming%Lei%NULL%1, Wangdong%Xu%NULL%2, Wangdong%Xu%NULL%0, Xiaolu%Hu%NULL%1, Jun%Chen%NULL%0, Bo%Liu%liubogzcm@163.com%0, Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0, Juanjuan%Guo%NULL%0, Chen%Wang%NULL%0, Fan%Luo%NULL%0, Xuechen%Yu%NULL%0, Wei%Zhang%NULL%0, Jiafu%Li%NULL%0, Dongchi%Zhao%NULL%0, Dan%Xu%NULL%0, Qing%Gong%NULL%0, Jing%Liao%NULL%0, Huixia%Yang%yanghuixia@bjmu.edu.cn%0, Wei%Hou%houwei@whu.edu.cn%0, Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In about 20 days since the diagnosis of the first case of the 2019 novel coronavirus (2019-nCoV) in Korea on January 20, 2020, 28 cases have been confirmed.
+ Fifteen patients (53.6%) of them were male and median age of was 42 years (range, 20-73).
+ Of the confirmed cases, 16, 9, and 3 were index (57.2%), first-generation (32.1%), and second-generation (10.7%) cases, respectively.
+ All first-generation and second-generation patients were family members or intimate acquaintances of the index cases with close contacts.
+ Fifteen among 16 index patients had entered Korea from January 19 to 24, 2020 while 1 patient had entered Korea on January 31, 2020. The average incubation period was 3.9 days (median, 3.0), and the reproduction number was estimated as 0.48. Three of the confirmed patients were asymptomatic when they were diagnosed.
+ Epidemiological indicators will be revised with the availability of additional data in the future.
+ Sharing epidemiological information among researchers worldwide is essential for efficient preparation and response in tackling this new infectious disease.
+</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Korean Society of Epidemiology</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%0, Junfeng%Li%NULL%1, Xun%Li%NULL%0, Xiaolong%Qi%qixiaolong@vip.163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0, Xuhua%Guan%NULL%0, Peng%Wu%NULL%0, Xiaoye%Wang%NULL%0, Lei%Zhou%NULL%0, Yeqing%Tong%NULL%0, Ruiqi%Ren%NULL%0, Kathy S.M.%Leung%NULL%0, Eric H.Y.%Lau%NULL%0, Jessica Y.%Wong%NULL%0, Xuesen%Xing%NULL%0, Nijuan%Xiang%NULL%0, Yang%Wu%NULL%0, Chao%Li%NULL%0, Qi%Chen%NULL%0, Dan%Li%NULL%0, Tian%Liu%NULL%0, Jing%Zhao%NULL%0, Man%Liu%NULL%0, Wenxiao%Tu%NULL%0, Chuding%Chen%NULL%0, Lianmei%Jin%NULL%0, Rui%Yang%NULL%0, Qi%Wang%NULL%0, Suhua%Zhou%NULL%0, Rui%Wang%NULL%0, Hui%Liu%NULL%0, Yinbo%Luo%NULL%0, Yuan%Liu%NULL%0, Ge%Shao%NULL%0, Huan%Li%NULL%0, Zhongfa%Tao%NULL%0, Yang%Yang%NULL%0, Zhiqiang%Deng%NULL%0, Boxi%Liu%NULL%0, Zhitao%Ma%NULL%0, Yanping%Zhang%NULL%0, Guoqing%Shi%NULL%0, Tommy T.Y.%Lam%NULL%0, Joseph T.%Wu%NULL%0, George F.%Gao%NULL%0, Benjamin J.%Cowling%NULL%0, Bo%Yang%NULL%0, Bo%Yang%NULL%0, Gabriel M.%Leung%NULL%0, Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the 2019 novel coronavirus (2019-nCoV or officially named by the World Health Organization as COVID-19) outbreak in Wuhan, Hubei Province, China in 2019, there have been a few reports of its imaging findings.
+ Here, we report two confirmed cases of 2019-nCoV pneumonia with chest computed tomography findings of multiple regions of patchy consolidation and ground-glass opacities in both lungs.
+ These findings were characteristically located along the bronchial bundle or subpleural lungs.
+</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%0, Zhenyu%Gong%NULL%2, Zhenyu%Gong%NULL%0, Zuke%Xiao%NULL%2, Zuke%Xiao%NULL%0, Jingliang%Xiong%NULL%1, Bing%Fan%NULL%0, Jiaqi%Liu%NULL%2, Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Korean Society of Radiology</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0, Yuan-Yuan%Fang%NULL%0, Yan%Deng%NULL%0, Wei%Liu%NULL%0, Mei-Fang%Wang%NULL%0, Jing-Ping%Ma%NULL%0, Wei%Xiao%NULL%0, Ying-Nan%Wang%NULL%0, Min-Hua%Zhong%NULL%0, Cheng-Hong%Li%NULL%0, Guang-Cai%Li%NULL%0, Hui-Guo%Liu%NULL%0, Xiu-Yuan%Hao%NULL%0, Xiu-Yuan%Hao%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer Health</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%0, Xian-zheng%Tan%xianzhengtan@163.com%2, Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0, Tianhe%Ye%NULL%0, Tianhe%Ye%NULL%0, Peng%Sun%NULL%0, Peng%Sun%NULL%0, Shan%Gui%NULL%0, Shan%Gui%NULL%0, Bo%Liang%NULL%0, Bo%Liang%NULL%0, Lingli%Li%NULL%0, Lingli%Li%NULL%0, Dandan%Zheng%NULL%0, Dandan%Zheng%NULL%0, Jiazheng%Wang%NULL%0, Jiazheng%Wang%NULL%0, Richard L.%Hesketh%NULL%0, Richard L.%Hesketh%NULL%0, Lian%Yang%yanglian@hust.edu.cn%0, Lian%Yang%yanglian@hust.edu.cn%0, Chuansheng%Zheng%NULL%0, Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%0, Thuong V.%Nguyen%NULL%1, Quang C.%Luong%NULL%1, Thinh V.%Nguyen%NULL%1, Hieu T.%Nguyen%NULL%1, Hung Q.%Le%NULL%2, Hung Q.%Le%NULL%0, Thuc T.%Nguyen%NULL%1, Thang M.%Cao%NULL%2, Thang M.%Cao%NULL%0, Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%0, Krit%Pongpirul%NULL%2, Krit%Pongpirul%NULL%0, Anuttra C.%Ratnarathon%NULL%2, Anuttra C.%Ratnarathon%NULL%0, Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0, Ye-Ming%Wang%NULL%0, Zhi-Qiang%Wu%NULL%0, Zi-Chun%Xiang%NULL%0, Li%Guo%NULL%0, Teng%Xu%NULL%0, Yong-Zhong%Jiang%NULL%0, Yan%Xiong%NULL%0, Yong-Jun%Li%NULL%0, Xing-Wang%Li%NULL%0, Hui%Li%NULL%0, Guo-Hui%Fan%NULL%0, Xiao-Ying%Gu%NULL%0, Yan%Xiao%NULL%0, Hong%Gao%NULL%0, Jiu-Yang%Xu%NULL%0, Fan%Yang%NULL%0, Xin-Ming%Wang%NULL%0, Chao%Wu%NULL%0, Lan%Chen%NULL%0, Yi-Wei%Liu%NULL%0, Bo%Liu%NULL%0, Jian%Yang%NULL%0, Xiao-Rui%Wang%NULL%0, Jie%Dong%NULL%0, Li%Li%NULL%0, Chao-Lin%Huang%NULL%0, Jian-Ping%Zhao%NULL%0, Yi%Hu%NULL%0, Zhen-Shun%Cheng%NULL%0, Lin-Lin%Liu%NULL%0, Zhao-Hui%Qian%NULL%0, Chuan%Qin%NULL%0, Qi%Jin%NULL%0, Bin%Cao%NULL%0, Jian-Wei%Wang%NULL%0, Xiu-Yuan%Hao%NULL%0, Xiu-Yuan%Hao%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%0, Mirjam%Schunk%NULL%1, Peter%Sothmann%NULL%1, Gisela%Bretzel%NULL%1, Guenter%Froeschl%NULL%1, Claudia%Wallrauch%NULL%1, Thorbjörn%Zimmer%NULL%1, Verena%Thiel%NULL%1, Christian%Janke%NULL%1, Wolfgang%Guggemos%NULL%2, Wolfgang%Guggemos%NULL%0, Michael%Seilmaier%NULL%1, Christian%Drosten%NULL%2, Christian%Drosten%NULL%0, Patrick%Vollmar%NULL%2, Patrick%Vollmar%NULL%0, Katrin%Zwirglmaier%NULL%1, Sabine%Zange%NULL%1, Roman%Wölfel%NULL%1, Michael%Hoelscher%NULL%2, Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0, Xiaoyu%Han%NULL%0, Xiaoyu%Han%NULL%0, Chuansheng%Zheng%hqzcsxh@sina.com%0, Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%0, Lynfa%Stroud%NULL%1, Graham Edward%Cleghorn%NULL%1, Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0, Nannan%Shi%NULL%0, Nannan%Shi%NULL%0, Fei%Shan%NULL%0, Zhiyong%Zhang%NULL%0, Jie%Shen%NULL%0, Hongzhou%Lu%NULL%0, Yun%Ling%NULL%0, Yebin%Jiang%NULL%0, Yebin%Jiang%NULL%0, Yuxin%Shi%shiyuxin@shphc.org.cn%0, Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To help health workers and the public recognize and deal with the 2019 novel coronavirus (2019‐nCoV) quickly, effectively, and calmly with an updated understanding.
+ A comprehensive search from Chinese and worldwide official websites and announcements was performed between 1 December 2019 and 9:30 am 26 January 2020 (Beijing time).
+ A latest summary of 2019‐nCoV and the current outbreak was drawn.
+ Up to 24 pm, 25 January 2020, a total of 1975 cases of 2019‐nCoV infection were confirmed in mainland China with a total of 56 deaths having occurred.
+ The latest mortality was approximately 2.84% with a total of 2684 cases still suspected.
+ The China National Health Commission reported the details of the first 17 deaths up to 24 pm, 22 January 2020. The deaths included 13 males and 4 females.
+ The median age of the people who died was 75 (range 48‐89) years.
+ Fever (64.7%) and cough (52.9%) were the most common first symptoms among those who died.
+ The median number of days from the occurence of the first symptom to death was 14.0 (range 6‐41) days, and it tended to be shorter among people aged 70 years or more (11.5 [range 6‐19] days) than those aged less than 70 years (20 [range 10‐41] days; P = .
+033).
+ The 2019‐nCoV infection is spreading and its incidence is increasing nationwide.
+ The first deaths occurred mostly in elderly people, among whom the disease might progress faster.
+ The public should still be cautious in dealing with the virus and pay more attention to protecting the elderly people from the virus.
+</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%0, Jianming%Tang%15900792812@163.com%1, Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0, Zheng-yi%Ni%NULL%0, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%0, Wen-hua%Liang%NULL%0, Chun-quan%Ou%NULL%0, Jian-xing%He%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%0, David S.C.%Hui%NULL%0, Bin%Du%NULL%0, Lan-juan%Li%NULL%0, Guang%Zeng%NULL%0, Kwok-Yung%Yuen%NULL%0, Ru-chong%Chen%NULL%0, Chun-li%Tang%NULL%0, Tao%Wang%NULL%0, Ping-yan%Chen%NULL%0, Jie%Xiang%NULL%0, Shi-yue%Li%NULL%0, Jin-lin%Wang%NULL%0, Zi-jing%Liang%NULL%0, Yi-xiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Ya-hua%Hu%NULL%0, Peng%Peng%NULL%0, Jian-ming%Wang%NULL%0, Ji-yang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhi-jian%Zheng%NULL%0, Shao-qin%Qiu%NULL%0, Jie%Luo%NULL%0, Chang-jiang%Ye%NULL%0, Shao-yong%Zhu%NULL%0, Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>Some patients with positive chest CT findings may present with negative results of real time reverse-transcription–polymerase chain- reaction (RT-PCR) for 2019 novel coronavirus (2019-nCoV).
+ In this report, we present chest CT findings from five patients with 2019-nCoV infection who had initial negative RT-PCR results.
+ All five patients had typical imaging findings, including ground-glass opacity (GGO) (5 patients) and/or mixed GGO and mixed consolidation (2 patients).
+ After isolation for presumed 2019-nCoV pneumonia, all patients were eventually confirmed with 2019-nCoV infection by repeated swab tests.
+ A combination of repeated swab tests and CT scanning may be helpful when for individuals with high clinical suspicion of nCoV infection but negative RT-PCR screening</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%0, Zheng%Zhong%NULL%2, Zheng%Zhong%NULL%0, Wei%Zhao%NULL%0, Wei%Zhao%NULL%0, Chao%Zheng%NULL%2, Chao%Zheng%NULL%0, Fei%Wang%NULL%2, Fei%Wang%NULL%0, Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0, Chengcheng%Yu%1515185140@qq.com%0, Lieguang%Zhang%zhlieguang@126.com%0, Liangping%Luo%tluolp@jnu.edu.cn%0, Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0, Xiao-Xin%Wu%NULL%0, Xian-Gao%Jiang%NULL%0, Kai-Jin%Xu%NULL%0, Ling-Jun%Ying%NULL%0, Chun-Lian%Ma%NULL%0, Shi-Bo%Li%NULL%0, Hua-Ying%Wang%NULL%0, Sheng%Zhang%NULL%0, Hai-Nv%Gao%NULL%0, Ji-Fang%Sheng%NULL%0, Hong-Liu%Cai%NULL%0, Yun-Qing%Qiu%NULL%0, Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%0, Xiaochen%Li%NULL%0, Xiaochen%Li%NULL%0, Wei%Zhang%NULL%0, Zheng-Li%Shi%NULL%0, Zhishui%Zheng%NULL%1, Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Springer Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novel coronavirus (SARS-CoV-2) is found to cause a large outbreak started from Wuhan since December 2019 in China and SARS-CoV-2 infections have been reported with epidemiological linkage to China in 25 countries until now.
+ We isolated SARS-CoV-2 from the oropharyngeal sample obtained from the patient with the first laboratory-confirmed SARS-CoV-2 infection in Korea.
+ Cytopathic effects of SARS-CoV-2 in the Vero cell cultures were confluent 3 days after the first blind passage of the sample.
+ Coronavirus was confirmed with spherical particle having a fringe reminiscent of crown on transmission electron microscopy.
+ Phylogenetic analyses of whole genome sequences showed that it clustered with other SARS-CoV-2 reported from Wuhan.
+</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%0, Nak-Jung%Kwon%NULL%2, Nak-Jung%Kwon%NULL%0, Su-Jin%Choi%NULL%2, Su-Jin%Choi%NULL%0, Chang Kyung%Kang%NULL%4, Chang Kyung%Kang%NULL%0, Pyoeng Gyun%Choe%NULL%4, Pyoeng Gyun%Choe%NULL%0, Jin Yong%Kim%NULL%0, Jin Yong%Kim%NULL%0, Jiyoung%Yun%NULL%2, Jiyoung%Yun%NULL%0, Gir-Won%Lee%NULL%2, Gir-Won%Lee%NULL%0, Moon-Woo%Seong%NULL%3, Moon-Woo%Seong%NULL%0, Nam Joong%Kim%NULL%4, Nam Joong%Kim%NULL%0, Jeong-Sun%Seo%NULL%2, Jeong-Sun%Seo%NULL%0, Myoung-don%Oh%NULL%7, Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Korean Academy of Medical Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since mid-December of 2019, coronavirus disease 2019 (COVID-19) has been spreading from Wuhan, China.
+ The confirmed COVID-19 patients in South Korea are those who came from or visited China.
+ As secondary transmissions have occurred and the speed of transmission is accelerating, there are rising concerns about community infections.
+ The 54-year old male is the third patient diagnosed with COVID-19 in Korea.
+ He is a worker for a clothing business and had mild respiratory symptoms and intermittent fever in the beginning of hospitalization, and pneumonia symptoms on chest computerized tomography scan on day 6 of admission.
+ This patient caused one case of secondary transmission and three cases of tertiary transmission.
+ Hereby, we report the clinical findings of the index patient who was the first to cause tertiary transmission outside China.
+ Interestingly, after lopinavir/ritonavir (Kaletra, AbbVie) was administered, β-coronavirus viral loads significantly decreased and no or little coronavirus titers were observed.
+</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%0, Seunghyun%Jeon%NULL%2, Seunghyun%Jeon%NULL%0, Hyun-Young%Shin%NULL%2, Hyun-Young%Shin%NULL%0, Moon Jung%Kim%NULL%2, Moon Jung%Kim%NULL%0, Yu Min%Seong%NULL%2, Yu Min%Seong%NULL%0, Wang Jun%Lee%NULL%2, Wang Jun%Lee%NULL%0, Kang-Won%Choe%NULL%2, Kang-Won%Choe%NULL%0, Yu Min%Kang%NULL%4, Yu Min%Kang%NULL%0, Baeckseung%Lee%NULL%2, Baeckseung%Lee%NULL%0, Sang-Joon%Park%NULL%2, Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In December 2019, a viral pneumonia outbreak caused by a novel betacoronavirus, the 2019 novel coronavirus (2019-nCoV), began in Wuhan, China.
+ We report the epidemiological and clinical features of the first patient with 2019-nCoV pneumonia imported into Korea from Wuhan.
+ This report suggests that in the early phase of 2019-nCoV pneumonia, chest radiography would miss patients with pneumonia and highlights taking travel history is of paramount importance for early detection and isolation of 2019-nCoV cases.
+</t>
+  </si>
+  <si>
+    <t>In December 2019, a cluster of patients with pneumonia of unknown cause was linked to a seafood wholesale market in Wuhan, China.
+ A previously unknown betacoronavirus was discovered through the use of unbiased sequencing in samples from patients with pneumonia.
+ Human airway epithelial cells were used to isolate a novel coronavirus, named 2019-nCoV, which formed a clade within the subgenus sarbecovirus, Orthocoronavirinae subfamily.
+ Different from both MERS-CoV and SARS-CoV, 2019-nCoV is the seventh member of the family of coronaviruses that infect humans.
+ Enhanced surveillance and further investigation are ongoing.
+ (Funded by the National Key Research and Development Program of China and the National Major Project for Control and Prevention of Infectious Disease in China.
+)</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0, Dingyu%Zhang%NULL%5, Wenling%Wang%NULL%3, Xingwang%Li%NULL%0, Bo%Yang%NULL%0, Jingdong%Song%NULL%3, Xiang%Zhao%NULL%3, Baoying%Huang%NULL%3, Weifeng%Shi%NULL%3, Roujian%Lu%NULL%3, Peihua%Niu%NULL%3, Faxian%Zhan%NULL%3, Xuejun%Ma%NULL%3, Dayan%Wang%NULL%3, Wenbo%Xu%NULL%0, Guizhen%Wu%NULL%3, George F.%Gao%NULL%0, Wenjie%Tan%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0, Shuofeng%Yuan%NULL%0, Kin-Hang%Kok%NULL%0, Kelvin Kai-Wang%To%NULL%0, Hin%Chu%NULL%0, Jin%Yang%NULL%0, Fanfan%Xing%NULL%0, Jieling%Liu%NULL%0, Cyril Chik-Yan%Yip%NULL%0, Rosana Wing-Shan%Poon%NULL%0, Hoi-Wah%Tsoi%NULL%0, Simon Kam-Fai%Lo%NULL%0, Kwok-Hung%Chan%NULL%0, Vincent Kwok-Man%Poon%NULL%0, Wan-Mui%Chan%NULL%0, Jonathan Daniel%Ip%NULL%0, Jian-Piao%Cai%NULL%0, Vincent Chi-Chung%Cheng%NULL%0, Honglin%Chen%NULL%0, Christopher Kim-Ming%Hui%NULL%0, Kwok-Yung%Yuen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -5372,7 +5904,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>1446</v>
+        <v>1599</v>
       </c>
       <c r="F2" t="s">
         <v>77</v>
@@ -5384,10 +5916,10 @@
         <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>1029</v>
+        <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="3">
@@ -5401,10 +5933,10 @@
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>691</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>1447</v>
+        <v>1601</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>
@@ -5416,10 +5948,10 @@
         <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>1031</v>
+        <v>100</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="4">
@@ -5430,22 +5962,22 @@
         <v>43927.0</v>
       </c>
       <c r="C4" t="s">
-        <v>1365</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>1448</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>1449</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>1368</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>246</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
         <v>100</v>
@@ -5468,7 +6000,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>1450</v>
+        <v>1603</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -5480,10 +6012,10 @@
         <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>1029</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="6">
@@ -5500,7 +6032,7 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>1451</v>
+        <v>1605</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
@@ -5512,10 +6044,10 @@
         <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>1031</v>
+        <v>100</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="7">
@@ -5529,10 +6061,10 @@
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>1607</v>
       </c>
       <c r="E7" t="s">
-        <v>1452</v>
+        <v>1608</v>
       </c>
       <c r="F7" t="s">
         <v>98</v>
@@ -5544,10 +6076,10 @@
         <v>85</v>
       </c>
       <c r="I7" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="8">
@@ -5558,28 +6090,28 @@
         <v>43881.0</v>
       </c>
       <c r="C8" t="s">
-        <v>492</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>493</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>494</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>495</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>496</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
         <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>1136</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -5590,22 +6122,22 @@
         <v>43878.0</v>
       </c>
       <c r="C9" t="s">
-        <v>1372</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>1453</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>1454</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>1368</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
         <v>100</v>
@@ -5622,28 +6154,28 @@
         <v>43935.0</v>
       </c>
       <c r="C10" t="s">
-        <v>497</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>792</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>495</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>1138</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
         <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>1139</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -5660,7 +6192,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>1455</v>
+        <v>1610</v>
       </c>
       <c r="F11" t="s">
         <v>102</v>
@@ -5672,10 +6204,10 @@
         <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>1029</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="12">
@@ -5686,22 +6218,22 @@
         <v>43865.0</v>
       </c>
       <c r="C12" t="s">
-        <v>1376</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>1456</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>1457</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>1368</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
         <v>100</v>
@@ -5718,28 +6250,28 @@
         <v>43907.0</v>
       </c>
       <c r="C13" t="s">
-        <v>501</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>794</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>495</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>1141</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
         <v>100</v>
       </c>
       <c r="J13" t="s">
-        <v>1139</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -5750,22 +6282,22 @@
         <v>43872.0</v>
       </c>
       <c r="C14" t="s">
-        <v>1379</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>1458</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>1459</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>1368</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s">
         <v>100</v>
@@ -5788,7 +6320,7 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>1460</v>
+        <v>1612</v>
       </c>
       <c r="F15" t="s">
         <v>106</v>
@@ -5800,10 +6332,10 @@
         <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>1029</v>
+        <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="16">
@@ -5817,10 +6349,10 @@
         <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>1613</v>
       </c>
       <c r="E16" t="s">
-        <v>1461</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
@@ -5832,10 +6364,10 @@
         <v>111</v>
       </c>
       <c r="I16" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="17">
@@ -5852,7 +6384,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>1462</v>
+        <v>1614</v>
       </c>
       <c r="F17" t="s">
         <v>114</v>
@@ -5864,10 +6396,10 @@
         <v>115</v>
       </c>
       <c r="I17" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="18">
@@ -5884,7 +6416,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>1463</v>
+        <v>1615</v>
       </c>
       <c r="F18" t="s">
         <v>118</v>
@@ -5896,10 +6428,10 @@
         <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="19">
@@ -5916,7 +6448,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>1464</v>
+        <v>1617</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -5928,10 +6460,10 @@
         <v>85</v>
       </c>
       <c r="I19" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="20">
@@ -5948,7 +6480,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>1465</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -5960,10 +6492,10 @@
         <v>84</v>
       </c>
       <c r="I20" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="21">
@@ -5977,10 +6509,10 @@
         <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>1618</v>
       </c>
       <c r="E21" t="s">
-        <v>1466</v>
+        <v>1619</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -5992,10 +6524,10 @@
         <v>111</v>
       </c>
       <c r="I21" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="22">
@@ -6012,7 +6544,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>1467</v>
+        <v>1621</v>
       </c>
       <c r="F22" t="s">
         <v>131</v>
@@ -6024,10 +6556,10 @@
         <v>132</v>
       </c>
       <c r="I22" t="s">
-        <v>1029</v>
+        <v>100</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="23">
@@ -6041,10 +6573,10 @@
         <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>1623</v>
       </c>
       <c r="E23" t="s">
-        <v>1468</v>
+        <v>1624</v>
       </c>
       <c r="F23" t="s">
         <v>136</v>
@@ -6056,10 +6588,10 @@
         <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="24">
@@ -6076,7 +6608,7 @@
         <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>1469</v>
+        <v>1626</v>
       </c>
       <c r="F24" t="s">
         <v>140</v>
@@ -6088,10 +6620,10 @@
         <v>85</v>
       </c>
       <c r="I24" t="s">
-        <v>1029</v>
+        <v>100</v>
       </c>
       <c r="J24" t="s">
-        <v>100</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="25">
@@ -6108,7 +6640,7 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>1470</v>
+        <v>1627</v>
       </c>
       <c r="F25" t="s">
         <v>143</v>
@@ -6120,10 +6652,10 @@
         <v>144</v>
       </c>
       <c r="I25" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="26">
@@ -6140,7 +6672,7 @@
         <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>1471</v>
+        <v>1628</v>
       </c>
       <c r="F26" t="s">
         <v>148</v>
@@ -6152,10 +6684,10 @@
         <v>85</v>
       </c>
       <c r="I26" t="s">
-        <v>1029</v>
+        <v>100</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="27">
@@ -6169,10 +6701,10 @@
         <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>1629</v>
       </c>
       <c r="E27" t="s">
-        <v>1472</v>
+        <v>1630</v>
       </c>
       <c r="F27" t="s">
         <v>152</v>
@@ -6184,10 +6716,10 @@
         <v>144</v>
       </c>
       <c r="I27" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J27" t="s">
-        <v>100</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="28">
@@ -6204,7 +6736,7 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>1473</v>
+        <v>1632</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -6216,10 +6748,10 @@
         <v>156</v>
       </c>
       <c r="I28" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J28" t="s">
-        <v>100</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="29">
@@ -6236,7 +6768,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>1474</v>
+        <v>1633</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -6248,10 +6780,10 @@
         <v>85</v>
       </c>
       <c r="I29" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J29" t="s">
-        <v>100</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="30">
@@ -6265,10 +6797,10 @@
         <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>1634</v>
       </c>
       <c r="E30" t="s">
-        <v>1475</v>
+        <v>1635</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -6280,10 +6812,10 @@
         <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J30" t="s">
-        <v>100</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="31">
@@ -6294,22 +6826,22 @@
         <v>43881.0</v>
       </c>
       <c r="C31" t="s">
-        <v>1398</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>1476</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>1477</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G31" t="s">
-        <v>1368</v>
+        <v>72</v>
       </c>
       <c r="H31" t="s">
-        <v>1401</v>
+        <v>85</v>
       </c>
       <c r="I31" t="s">
         <v>100</v>
@@ -6332,7 +6864,7 @@
         <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>1478</v>
+        <v>1637</v>
       </c>
       <c r="F32" t="s">
         <v>169</v>
@@ -6344,10 +6876,10 @@
         <v>85</v>
       </c>
       <c r="I32" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J32" t="s">
-        <v>100</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="33">
@@ -6358,22 +6890,22 @@
         <v>43902.0</v>
       </c>
       <c r="C33" t="s">
-        <v>1403</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>1479</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>1480</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="G33" t="s">
-        <v>1368</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s">
-        <v>1406</v>
+        <v>85</v>
       </c>
       <c r="I33" t="s">
         <v>100</v>
@@ -6396,7 +6928,7 @@
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>1481</v>
+        <v>1639</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -6408,10 +6940,10 @@
         <v>173</v>
       </c>
       <c r="I34" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J34" t="s">
-        <v>100</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="35">
@@ -6428,7 +6960,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>1482</v>
+        <v>1640</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -6440,10 +6972,10 @@
         <v>85</v>
       </c>
       <c r="I35" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J35" t="s">
-        <v>100</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="36">
@@ -6460,7 +6992,7 @@
         <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>1483</v>
+        <v>1641</v>
       </c>
       <c r="F36" t="s">
         <v>180</v>
@@ -6472,10 +7004,10 @@
         <v>85</v>
       </c>
       <c r="I36" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J36" t="s">
-        <v>100</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="37">
@@ -6492,7 +7024,7 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>1484</v>
+        <v>1642</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -6504,10 +7036,10 @@
         <v>85</v>
       </c>
       <c r="I37" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J37" t="s">
-        <v>100</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="38">
@@ -6524,7 +7056,7 @@
         <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>1485</v>
+        <v>1643</v>
       </c>
       <c r="F38" t="s">
         <v>187</v>
@@ -6536,10 +7068,10 @@
         <v>85</v>
       </c>
       <c r="I38" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J38" t="s">
-        <v>100</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="39">
@@ -6556,7 +7088,7 @@
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>1486</v>
+        <v>1644</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -6568,10 +7100,10 @@
         <v>85</v>
       </c>
       <c r="I39" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J39" t="s">
-        <v>100</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="40">
@@ -6588,7 +7120,7 @@
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>1487</v>
+        <v>1645</v>
       </c>
       <c r="F40" t="s">
         <v>193</v>
@@ -6600,10 +7132,10 @@
         <v>165</v>
       </c>
       <c r="I40" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J40" t="s">
-        <v>100</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="41">
@@ -6620,7 +7152,7 @@
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>1488</v>
+        <v>1646</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
@@ -6632,10 +7164,10 @@
         <v>85</v>
       </c>
       <c r="I41" t="s">
-        <v>1029</v>
+        <v>100</v>
       </c>
       <c r="J41" t="s">
-        <v>100</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="42">
@@ -6652,7 +7184,7 @@
         <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>1489</v>
+        <v>1647</v>
       </c>
       <c r="F42" t="s">
         <v>200</v>
@@ -6664,10 +7196,10 @@
         <v>201</v>
       </c>
       <c r="I42" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J42" t="s">
-        <v>100</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="43">
@@ -6681,10 +7213,10 @@
         <v>202</v>
       </c>
       <c r="D43" t="s">
-        <v>203</v>
+        <v>1648</v>
       </c>
       <c r="E43" t="s">
-        <v>1490</v>
+        <v>1649</v>
       </c>
       <c r="F43" t="s">
         <v>205</v>
@@ -6696,10 +7228,10 @@
         <v>206</v>
       </c>
       <c r="I43" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="44">
@@ -6710,28 +7242,28 @@
         <v>43928.0</v>
       </c>
       <c r="C44" t="s">
-        <v>531</v>
+        <v>66</v>
       </c>
       <c r="D44" t="s">
         <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>822</v>
+        <v>70</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="G44" t="s">
-        <v>495</v>
+        <v>72</v>
       </c>
       <c r="H44" t="s">
-        <v>1170</v>
+        <v>85</v>
       </c>
       <c r="I44" t="s">
         <v>100</v>
       </c>
       <c r="J44" t="s">
-        <v>1139</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -6748,7 +7280,7 @@
         <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>1491</v>
+        <v>1650</v>
       </c>
       <c r="F45" t="s">
         <v>210</v>
@@ -6760,10 +7292,10 @@
         <v>85</v>
       </c>
       <c r="I45" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J45" t="s">
-        <v>100</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="46">
@@ -6777,10 +7309,10 @@
         <v>211</v>
       </c>
       <c r="D46" t="s">
-        <v>212</v>
+        <v>1651</v>
       </c>
       <c r="E46" t="s">
-        <v>1492</v>
+        <v>1652</v>
       </c>
       <c r="F46" t="s">
         <v>214</v>
@@ -6792,10 +7324,10 @@
         <v>85</v>
       </c>
       <c r="I46" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J46" t="s">
-        <v>100</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="47">
@@ -6812,7 +7344,7 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>1493</v>
+        <v>1653</v>
       </c>
       <c r="F47" t="s">
         <v>217</v>
@@ -6824,10 +7356,10 @@
         <v>85</v>
       </c>
       <c r="I47" t="s">
-        <v>1031</v>
+        <v>100</v>
       </c>
       <c r="J47" t="s">
-        <v>100</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="48">
@@ -6844,7 +7376,7 @@
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>1494</v>
+        <v>1654</v>
       </c>
       <c r="F48" t="s">
         <v>221</v>
@@ -6856,10 +7388,10 @@
         <v>222</v>
       </c>
       <c r="I48" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J48" t="s">
-        <v>100</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="49">
@@ -6870,22 +7402,22 @@
         <v>43878.0</v>
       </c>
       <c r="C49" t="s">
-        <v>1421</v>
+        <v>66</v>
       </c>
       <c r="D49" t="s">
-        <v>1495</v>
+        <v>67</v>
       </c>
       <c r="E49" t="s">
-        <v>1496</v>
+        <v>70</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="G49" t="s">
-        <v>1368</v>
+        <v>72</v>
       </c>
       <c r="H49" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="I49" t="s">
         <v>100</v>
@@ -6902,25 +7434,25 @@
         <v>44013.0</v>
       </c>
       <c r="C50" t="s">
-        <v>341</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>342</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>1497</v>
+        <v>70</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="G50" t="s">
-        <v>344</v>
+        <v>72</v>
       </c>
       <c r="H50" t="s">
         <v>85</v>
       </c>
       <c r="I50" t="s">
-        <v>1036</v>
+        <v>100</v>
       </c>
       <c r="J50" t="s">
         <v>100</v>
@@ -6934,22 +7466,22 @@
         <v>43876.0</v>
       </c>
       <c r="C51" t="s">
-        <v>1425</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>1498</v>
+        <v>67</v>
       </c>
       <c r="E51" t="s">
-        <v>1499</v>
+        <v>70</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G51" t="s">
-        <v>1368</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s">
-        <v>1428</v>
+        <v>85</v>
       </c>
       <c r="I51" t="s">
         <v>100</v>
@@ -6966,22 +7498,22 @@
         <v>43872.0</v>
       </c>
       <c r="C52" t="s">
-        <v>1429</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>1500</v>
+        <v>67</v>
       </c>
       <c r="E52" t="s">
-        <v>1501</v>
+        <v>70</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G52" t="s">
-        <v>1368</v>
+        <v>72</v>
       </c>
       <c r="H52" t="s">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s">
         <v>100</v>
@@ -7004,7 +7536,7 @@
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>1502</v>
+        <v>1656</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -7016,10 +7548,10 @@
         <v>226</v>
       </c>
       <c r="I53" t="s">
-        <v>1031</v>
+        <v>100</v>
       </c>
       <c r="J53" t="s">
-        <v>100</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="54">
@@ -7033,10 +7565,10 @@
         <v>227</v>
       </c>
       <c r="D54" t="s">
-        <v>228</v>
+        <v>1658</v>
       </c>
       <c r="E54" t="s">
-        <v>1503</v>
+        <v>1659</v>
       </c>
       <c r="F54" t="s">
         <v>230</v>
@@ -7048,10 +7580,10 @@
         <v>231</v>
       </c>
       <c r="I54" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J54" t="s">
-        <v>100</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="55">
@@ -7065,10 +7597,10 @@
         <v>232</v>
       </c>
       <c r="D55" t="s">
-        <v>233</v>
+        <v>1661</v>
       </c>
       <c r="E55" t="s">
-        <v>1504</v>
+        <v>1662</v>
       </c>
       <c r="F55" t="s">
         <v>235</v>
@@ -7080,10 +7612,10 @@
         <v>236</v>
       </c>
       <c r="I55" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J55" t="s">
-        <v>100</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="56">
@@ -7097,10 +7629,10 @@
         <v>237</v>
       </c>
       <c r="D56" t="s">
-        <v>238</v>
+        <v>1663</v>
       </c>
       <c r="E56" t="s">
-        <v>1505</v>
+        <v>239</v>
       </c>
       <c r="F56" t="s">
         <v>240</v>
@@ -7112,10 +7644,10 @@
         <v>241</v>
       </c>
       <c r="I56" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J56" t="s">
-        <v>100</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="57">
@@ -7126,25 +7658,25 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>243</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>1506</v>
+        <v>70</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G57" t="s">
-        <v>833</v>
+        <v>72</v>
       </c>
       <c r="H57" t="s">
-        <v>246</v>
+        <v>85</v>
       </c>
       <c r="I57" t="s">
-        <v>1078</v>
+        <v>100</v>
       </c>
       <c r="J57" t="s">
         <v>100</v>
@@ -7161,10 +7693,10 @@
         <v>247</v>
       </c>
       <c r="D58" t="s">
-        <v>248</v>
+        <v>1664</v>
       </c>
       <c r="E58" t="s">
-        <v>1507</v>
+        <v>1665</v>
       </c>
       <c r="F58" t="s">
         <v>250</v>
@@ -7176,10 +7708,10 @@
         <v>85</v>
       </c>
       <c r="I58" t="s">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="J58" t="s">
-        <v>100</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="59">
@@ -7196,7 +7728,7 @@
         <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>1508</v>
+        <v>1666</v>
       </c>
       <c r="F59" t="s">
         <v>254</v>
@@ -7208,10 +7740,10 @@
         <v>85</v>
       </c>
       <c r="I59" t="s">
-        <v>1029</v>
+        <v>100</v>
       </c>
       <c r="J59" t="s">
-        <v>100</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="60">
@@ -7222,22 +7754,22 @@
         <v>43902.0</v>
       </c>
       <c r="C60" t="s">
-        <v>1439</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>1509</v>
+        <v>67</v>
       </c>
       <c r="E60" t="s">
-        <v>1510</v>
+        <v>70</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G60" t="s">
-        <v>1368</v>
+        <v>72</v>
       </c>
       <c r="H60" t="s">
-        <v>1406</v>
+        <v>85</v>
       </c>
       <c r="I60" t="s">
         <v>100</v>
@@ -7254,22 +7786,22 @@
         <v>43877.0</v>
       </c>
       <c r="C61" t="s">
-        <v>1442</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>1511</v>
+        <v>67</v>
       </c>
       <c r="E61" t="s">
-        <v>1512</v>
+        <v>70</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G61" t="s">
-        <v>1368</v>
+        <v>72</v>
       </c>
       <c r="H61" t="s">
-        <v>1445</v>
+        <v>85</v>
       </c>
       <c r="I61" t="s">
         <v>100</v>
